--- a/data/old_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9548856753663298</v>
+        <v>0.9230251722200461</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005624</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.7663801087878682</v>
+        <v>0.707504122689592</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.4944340114494899</v>
+        <v>0.17447711622426418</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7293603700793653</v>
+        <v>0.7068679962739539</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.2950728822885958</v>
+        <v>0.20607055892771764</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>1.904355282708928E-8</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8066236525261707</v>
+        <v>0.7795843911395076</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9954220866802573</v>
+        <v>0.9909984348840045</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.22953353390110315</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.999151224228583</v>
+        <v>0.9978881164749293</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997971268258575</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9997337709583066</v>
+        <v>0.9992117194595661</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999981551406696</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9935255317196399</v>
+        <v>0.9880875036347689</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373907</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9653215459773401</v>
+        <v>0.9508589161895039</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.9998626563393225</v>
+        <v>0.9990912345586165</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.8658854186775958</v>
+        <v>0.8383864546290153</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9944971304454641</v>
+        <v>0.9867922179741713</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8569758867585606</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999417</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>1.65921891154094E-4</v>
+        <v>2.4625459551125996E-5</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9354423422258065</v>
+        <v>0.9132408432296854</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999165273637263</v>
+        <v>0.9997060112137942</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999832268215</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.8581224550938213</v>
+        <v>0.8303082391534189</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9985603930134859</v>
+        <v>0.9966254783445173</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9703855787241963</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9805201501449755</v>
+        <v>0.9690661341665177</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9922808704137219</v>
+        <v>0.9654392621177316</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.9677848686288906</v>
+        <v>0.9102388012245787</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.016074409048944797</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9354423422258065</v>
+        <v>0.9132408432296854</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999165273637263</v>
+        <v>0.9997060112137942</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999832268215</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.12998197824655633</v>
+        <v>0.11442010529233738</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.0014785100144324454</v>
+        <v>8.39706230100872E-4</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9682189447870816</v>
+        <v>0.9527093981691175</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9750048462255029</v>
+        <v>0.8867634526088648</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>1.1289631691662465E-9</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.844134879052137</v>
+        <v>0.8171381596031533</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>2.460733476084406E-4</v>
+        <v>1.1405479536990426E-4</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.777729233334387</v>
+        <v>0.7528837845657742</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>3.85641058403496E-4</v>
+        <v>2.1255725996427885E-4</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>4.116537344467688E-17</v>
+        <v>1.6043452336788696E-17</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9805201501449754</v>
+        <v>0.9690661341665177</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.11126881700914706</v>
+        <v>0.035816684512493153</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8066236525261707</v>
+        <v>0.7795843911395076</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.2581075205057281</v>
+        <v>0.1497660472358915</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>1.4725602100664222E-8</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9599047232723427</v>
+        <v>0.9424238459292104</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9998995703021941</v>
+        <v>0.9995668588669431</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9392740603385288</v>
+        <v>0.9177620654046346</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999359235232642</v>
+        <v>0.9997675596925979</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.06310564577244554</v>
+        <v>0.006523700401828805</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9653215459773401</v>
+        <v>0.9508589161895039</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.999991388003537</v>
+        <v>0.9999321917750832</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.8658854186775958</v>
+        <v>0.8383864546290153</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9988945596136959</v>
+        <v>0.9973302342475394</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9975176876196338</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999580613609</v>
+        <v>0.9999995491153473</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9392740603385288</v>
+        <v>0.9177620654046346</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.9999359235232642</v>
+        <v>0.9997675596925979</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999986322955</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9997337709583066</v>
+        <v>0.9992117194595661</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999981551406696</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.999151224228583</v>
+        <v>0.9978881164749293</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997971268258575</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999580613609</v>
+        <v>0.9999995491153473</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.957315612444199</v>
+        <v>0.9391685944762209</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999799124465293</v>
+        <v>0.9999133417451849</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999875652</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.9997337709583066</v>
+        <v>0.9992117194595661</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999981551406696</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999580613609</v>
+        <v>0.9999995491153473</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9142895684144373</v>
+        <v>0.8897072368608575</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9997956247186821</v>
+        <v>0.9993766866346069</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998495677661</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.9997337709583066</v>
+        <v>0.9992117194595661</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999981551406696</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9935255317196399</v>
+        <v>0.9880875036347689</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999904144399543</v>
+        <v>0.9999258363055126</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.995770480796613</v>
+        <v>0.9895290361984231</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9865739818062277</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.025737299121944873</v>
+        <v>0.018578949907748166</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>5.782280945437557E-6</v>
+        <v>1.741159686643252E-6</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7420508639559504</v>
+        <v>0.7188326870226217</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>3.489826442577904E-5</v>
+        <v>2.101120461279092E-5</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.510140132929093E-16</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.4275925757267619</v>
+        <v>0.3924732185143495</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.830363001179107</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>2.3691131762362077E-6</v>
+        <v>1.3446572786682904E-6</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8261767991990003</v>
+        <v>0.7990169638886956</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>1.8890153288738E-4</v>
+        <v>9.017327873698092E-5</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.2639739423333208E-18</v>
+        <v>5.073547824072443E-19</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9935255317196399</v>
+        <v>0.9880875036347689</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.648878092524513</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9980354600825904</v>
+        <v>0.9889680570508037</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.8581224550938213</v>
+        <v>0.8303082391534189</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9928431771163279</v>
+        <v>0.98335210643204</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.32821912620192994</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9264203676371447</v>
+        <v>0.9053178888016327</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9752839810268731</v>
+        <v>0.8888272266965266</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7162842447745832</v>
+        <v>0.6946104684136772</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.97570715791993</v>
+        <v>0.9624774313358464</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>1.8009005159745982E-5</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.002506633855639816</v>
+        <v>0.0019743397702975045</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.01974733507210581</v>
+        <v>0.015068129434597387</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>4.870121221338056E-11</v>
+        <v>2.495517057864756E-11</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836923</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>1.0314315700817384E-8</v>
+        <v>7.832909504344863E-9</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>5.106692230034439E-25</v>
+        <v>2.6167392945328723E-25</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9354423422258065</v>
+        <v>0.9132408432296854</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999165273637263</v>
+        <v>0.9997060112137942</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999832268215</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>3.4649133086465624E-4</v>
+        <v>2.8590924137401067E-4</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.004012861673675627</v>
+        <v>0.003050396907259866</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>1.3434817162948104E-12</v>
+        <v>7.215438542161911E-13</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836923</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.0628631571850937E-9</v>
+        <v>1.5665819106856877E-9</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>1.4087426841474313E-26</v>
+        <v>7.565935684791365E-27</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.008958546388159383</v>
+        <v>0.008849748844690255</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>2.4380675262533546E-5</v>
+        <v>2.2803670802565928E-5</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>5.6564542491349966E-8</v>
+        <v>5.0476871432137335E-8</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>1.2189148912541326E-4</v>
+        <v>1.1400795481334794E-4</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>1.2943976867945374E-8</v>
+        <v>9.562316766582992E-9</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>3.382582210004506E-17</v>
+        <v>2.1014443759743097E-17</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>1.4141116425578756E-6</v>
+        <v>1.2619202570565602E-6</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.6912911050022541E-16</v>
+        <v>1.0507221879871573E-16</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>9.051674823812906E-33</v>
+        <v>4.7290360439044114E-33</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>4.4671337397187255E-10</v>
+        <v>2.689490699153288E-10</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226218</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>2.7919578090683517E-7</v>
+        <v>1.680931404869809E-7</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>1.4942372244822024E-23</v>
+        <v>7.565450342675251E-24</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>3.5177320302641745E-4</v>
+        <v>3.484173508510821E-4</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>1.778309046299718E-7</v>
+        <v>1.6792538441264606E-7</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.1964465389724716E-10</v>
+        <v>1.0284472157598953E-10</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>8.891538906736964E-7</v>
+        <v>8.396263580849146E-7</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>4.750613331497058E-13</v>
+        <v>3.7329369677866126E-13</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>7.200427856642044E-23</v>
+        <v>4.539658865215227E-23</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>2.845294979251356E-10</v>
+        <v>2.686806601063478E-10</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>7.783404882328439E-23</v>
+        <v>6.116043928023874E-23</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>1.2080313344329975E-39</v>
+        <v>7.616283734803011E-40</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>8.934267482630297E-11</v>
+        <v>5.3789813994639106E-11</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>1.7504442255170734E-8</v>
+        <v>1.2531851199201369E-8</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>1.873651692140692E-25</v>
+        <v>1.128054160045522E-25</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>4.4671337397187255E-10</v>
+        <v>2.689490699153288E-10</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226218</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>2.7919578090683517E-7</v>
+        <v>1.680931404869809E-7</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>1.4942372244822024E-23</v>
+        <v>7.565450342675251E-24</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.08348852753576994</v>
+        <v>0.06403778665388726</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373907</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.5268408867419911</v>
+        <v>0.43629669603873555</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.0014736843777526287</v>
+        <v>5.128352093157919E-4</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.8658854186775958</v>
+        <v>0.8383864546290153</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.05466984068278877</v>
+        <v>0.023349888194782606</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>1.5698817791583946E-12</v>
+        <v>3.2459738954655006E-13</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>4.467133739718727E-10</v>
+        <v>2.6894906991532874E-10</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226216</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>2.791957809068353E-7</v>
+        <v>1.680931404869809E-7</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>1.4942372244822036E-23</v>
+        <v>7.565450342675248E-24</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.0011937849972290088</v>
+        <v>0.0010325614678792488</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005624</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.025572542375747156</v>
+        <v>0.018983467327462956</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>1.3716238124149587E-11</v>
+        <v>8.50518915858066E-12</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.7293603700793652</v>
+        <v>0.7068679962739538</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>4.2863242301297814E-8</v>
+        <v>2.657871541436259E-8</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>4.588023276281482E-25</v>
+        <v>2.3924821988713674E-25</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9358858394547819</v>
+        <v>0.8965634528931797</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9997783569715221</v>
+        <v>0.9986255818395945</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9354423422258065</v>
+        <v>0.9132408432296854</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9995827761257385</v>
+        <v>0.998531782626745</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9930309539077866</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.016659966689740742</v>
+        <v>0.015432230117449786</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>8.263394919621722E-5</v>
+        <v>6.639687327418978E-5</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.07352347200872407</v>
+        <v>0.06883241766278204</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>1.207816857892545E-6</v>
+        <v>9.235168424252353E-7</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>1.3272362606191203E-15</v>
+        <v>7.76865061220171E-16</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>1.2695693496470243E-4</v>
+        <v>1.1825888945963956E-4</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>9.894447650536351E-16</v>
+        <v>7.565456959974461E-16</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>1.1133664713719586E-31</v>
+        <v>6.516816467471964E-32</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.027229914019889206</v>
+        <v>0.023793502694040108</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373907</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.4608318927729418</v>
+        <v>0.3796167388799462</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>1.1167834229565117E-8</v>
+        <v>6.72372670448306E-9</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.7543467134348185</v>
+        <v>0.7304952131265653</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>1.2690719246599022E-7</v>
+        <v>8.668481044701335E-8</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>3.3959936920050074E-23</v>
+        <v>1.9507327116763538E-23</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.008590843603613224</v>
+        <v>0.007099018832218605</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>7.125078267267492E-9</v>
+        <v>3.6074878289141893E-9</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226218</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>1.3959773455302362E-6</v>
+        <v>8.404651373292071E-7</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>1.1916541865245584E-21</v>
+        <v>5.073873304556175E-22</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.02901336758025176</v>
+        <v>0.025189796381916627</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.5268408867419911</v>
+        <v>0.43629669603873555</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>1.4548656413766459E-8</v>
+        <v>8.504643492668987E-9</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.7543467134348186</v>
+        <v>0.7304952131265653</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>1.8185787709439753E-6</v>
+        <v>1.0630793154859136E-6</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>4.866463722123661E-22</v>
+        <v>2.392328725141013E-22</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>1.1142060819063308E-4</v>
+        <v>1.052116072144159E-4</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>1.6545575421947818E-11</v>
+        <v>1.4906205664882936E-11</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>4.289456694126358E-4</v>
+        <v>4.162429856911381E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>5.077694969537265E-15</v>
+        <v>4.623738355245315E-15</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>1.5440612333094763E-29</v>
+        <v>1.3414699906154748E-29</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>2.7464302782186084E-8</v>
+        <v>2.665064351770002E-8</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>3.327718175235948E-26</v>
+        <v>3.0302131684935773E-26</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>1.0362019531383727E-47</v>
+        <v>9.002452716029441E-48</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.07809555600224687</v>
+        <v>0.07267500121698324</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>1.1981477098905045E-4</v>
+        <v>9.185321758248385E-5</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.27098680916618223</v>
+        <v>0.2584990660831072</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>6.224969143477377E-7</v>
+        <v>5.12958963506973E-7</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>9.918639422772129E-16</v>
+        <v>5.969542063635978E-16</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>8.616410519999636E-4</v>
+        <v>7.710633541613919E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>3.697135975149796E-15</v>
+        <v>2.9067025798702785E-15</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>3.0161297028980734E-30</v>
+        <v>1.7319235910050765E-30</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.003164281913323645</v>
+        <v>0.002948104885855498</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>1.548348945891395E-5</v>
+        <v>1.2526020452943653E-5</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.015623658921240555</v>
+        <v>0.014568723924546945</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>4.525981317421379E-8</v>
+        <v>3.484314058999221E-8</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>4.973468863742439E-17</v>
+        <v>2.931012543471414E-17</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>5.078896407664176E-6</v>
+        <v>4.730892669694322E-6</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>3.707684063040671E-17</v>
+        <v>2.854350176586691E-17</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>2.0860240349070225E-32</v>
+        <v>1.2293557635132213E-32</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>2.3898523703823004E-4</v>
+        <v>2.0668302391709892E-4</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.004012861673675627</v>
+        <v>0.003050396907259866</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>8.423082860793116E-14</v>
+        <v>5.3793264745465013E-14</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836923</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>4.125726321178833E-10</v>
+        <v>3.1331638252980593E-10</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>1.7664485067679374E-28</v>
+        <v>1.1281265274748636E-28</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.01665996668974075</v>
+        <v>0.015432230117449795</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>3.144475705831599E-7</v>
+        <v>2.7755606840980813E-7</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.061248539023358854</v>
+        <v>0.058406972735116434</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>1.627346198980879E-7</v>
+        <v>1.2991320314465835E-7</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>6.804255826958969E-19</v>
+        <v>4.568021070770679E-19</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.0026029939546722506</v>
+        <v>0.0024750570769685233</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>6.665611115751345E-16</v>
+        <v>5.321245492105256E-16</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>5.707823486407424E-35</v>
+        <v>3.831933809843514E-35</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.1884482531341228</v>
+        <v>0.1861545737827383</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>2.1985648583364462E-5</v>
+        <v>2.078883511447664E-5</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.3077863858988054E-8</v>
+        <v>9.327515221819298E-9</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>1.09918576392049E-4</v>
+        <v>1.0393553277776944E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>2.1316785648896092E-16</v>
+        <v>1.934846601628365E-16</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.596806908461355E-27</v>
+        <v>1.7778834147572524E-27</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>2.2513799129790414E-12</v>
+        <v>2.1288209714260377E-12</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>1.3970168642860484E-27</v>
+        <v>1.2680210688431644E-27</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>5.44589880169352E-42</v>
+        <v>3.7284917590249705E-42</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.005940557990129903</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.14598660556373447</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>8.934267482630295E-11</v>
+        <v>5.378981399463914E-11</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>1.750444225517073E-8</v>
+        <v>1.2531851199201369E-8</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>1.873651692140692E-25</v>
+        <v>1.1280541600455212E-25</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9599047232723427</v>
+        <v>0.9424238459292104</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.8856078007150349</v>
+        <v>0.8384391169563278</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.5426758843306013</v>
+        <v>0.2419666584441596</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.5953606853495322</v>
+        <v>0.5383616866383893</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.07443448949000515</v>
+        <v>0.03106521156937365</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>8.279335497399831E-9</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9599047232723427</v>
+        <v>0.9424238459292104</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9876006997632671</v>
+        <v>0.9486171078400046</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9142895684144373</v>
+        <v>0.8897072368608575</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9750845114724102</v>
+        <v>0.9276758266854924</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>2.6327220256474357E-4</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.5199602253827162</v>
+        <v>0.4719393599433497</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>1.889015328873798E-4</v>
+        <v>9.017327873698073E-5</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.014844076824535412</v>
+        <v>0.006011780225741151</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>8.038953271611266E-15</v>
+        <v>2.2820304002878167E-15</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9997337709583066</v>
+        <v>0.9992117194595661</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999981551406696</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.6948750048873368</v>
+        <v>0.6310616598354338</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.0019189546125049886</v>
+        <v>6.485820236705196E-4</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.7662410841727401</v>
+        <v>0.741847717347867</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.0014785100144324452</v>
+        <v>8.397062301008742E-4</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>8.03895327161127E-15</v>
+        <v>2.2820304002878148E-15</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999417</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>1.65921891154094E-4</v>
+        <v>2.4625459551125996E-5</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.6681493661466006</v>
+        <v>0.5561633530744238</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.4608318927729418</v>
+        <v>0.3796167388799462</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.21050043029565077</v>
+        <v>0.05138841889282489</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.7420508639559502</v>
+        <v>0.7188326870226218</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.021346561506537284</v>
+        <v>0.01296205745555979</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>1.3935152076107856E-10</v>
+        <v>2.3810120722854856E-11</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.7662410841727401</v>
+        <v>0.7418477173478671</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9914295236109376</v>
+        <v>0.9849978656399049</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.28945520303631755</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.8272322925249705</v>
+        <v>0.7660085424830336</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9244035621110978</v>
+        <v>0.7448426010051957</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9040062025487521</v>
+        <v>0.7907988172454545</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>3.25178729513383E-7</v>
+        <v>4.616796583125615E-8</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9719996667397248</v>
+        <v>0.9577067432824178</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9757853231600078</v>
+        <v>0.9123808499810525</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.904006202548752</v>
+        <v>0.7907988172454544</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>1.3504384962958626E-6</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9096414357812634</v>
+        <v>0.8623614416256521</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9920277269235632</v>
+        <v>0.954562105561821</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8261767991990003</v>
+        <v>0.7990169638886957</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.7469727897893969</v>
+        <v>0.5849045633102494</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>5.077936155636307E-6</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8066236525261707</v>
+        <v>0.7795843911395074</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9954220866802573</v>
+        <v>0.9909984348840045</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.22953353390110307</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.7070125351326295</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.8667386846919025</v>
+        <v>0.8103088484212231</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.8477297213196384</v>
+        <v>0.7946575776865432</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9315561124032167</v>
+        <v>0.7614943787434134</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.677043380383764</v>
+        <v>0.45261931378231196</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>2.3485391947381234E-5</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.32551973152148334</v>
+        <v>0.3057736153320551</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>6.49375418829356E-5</v>
+        <v>5.3947464945508984E-5</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>7.54317024248358E-4</v>
+        <v>5.76865593578686E-4</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>2.517172218414943E-13</v>
+        <v>1.3611463514988952E-13</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.25828580079540175</v>
+        <v>0.24745311889444727</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>7.730037226384018E-11</v>
+        <v>5.910513249630723E-11</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>5.27889275219464E-28</v>
+        <v>2.854530793338976E-28</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.34001132315648036</v>
+        <v>0.31832171035874407</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>1.8566416950623108E-5</v>
+        <v>1.253089043376763E-5</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9354423422258065</v>
+        <v>0.9132408432296854</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.13294612147241022</v>
+        <v>0.04171076153645519</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>8.038953271611274E-15</v>
+        <v>2.2820304002878163E-15</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.4728826555422436</v>
+        <v>0.38178303194945423</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.46083189277294173</v>
+        <v>0.3796167388799462</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.054500882289201615</v>
+        <v>0.01438668608552642</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.8658854186775957</v>
+        <v>0.8383864546290153</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.019779328376363457</v>
+        <v>0.009653391859286889</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>1.95242989893939E-10</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.08292650825997439</v>
+        <v>0.07671442507481559</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>6.391511313404627E-4</v>
+        <v>4.867217386604891E-4</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.07352347200872407</v>
+        <v>0.06883241766278206</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.056440093282903E-6</v>
+        <v>8.206814403339263E-7</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>1.6832939509536962E-15</v>
+        <v>9.550654603999753E-16</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>1.2695693496470238E-4</v>
+        <v>1.1825888945963955E-4</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>2.163591596748243E-14</v>
+        <v>1.6807569691699068E-14</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>8.825308189576084E-29</v>
+        <v>5.007293601021781E-29</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.012408752481889645</v>
+        <v>0.009794349357643591</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>5.682246729837676E-7</v>
+        <v>2.4194107422723113E-7</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8066236525261707</v>
+        <v>0.7795843911395076</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>1.1131695587508606E-4</v>
+        <v>5.636382047079846E-5</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>7.578995104682852E-18</v>
+        <v>2.2821767981112606E-18</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.008958546388159381</v>
+        <v>0.008849748844690251</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>1.3011238516331098E-4</v>
+        <v>1.2087043315073456E-4</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>2.1887703144704364E-6</v>
+        <v>1.8508761642279002E-6</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>1.2189148912541318E-4</v>
+        <v>1.1400795481334794E-4</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>1.132169500089496E-8</v>
+        <v>8.49753327471827E-9</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>1.0725068967841721E-15</v>
+        <v>6.458705123424377E-16</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.973165093140855E-6</v>
+        <v>2.415166163143818E-6</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>1.8817133504074805E-13</v>
+        <v>8.3995750190653E-14</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>1.8253328107042513E-27</v>
+        <v>6.537472113288952E-28</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.32551973152148334</v>
+        <v>0.3057736153320551</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.0014333199038422933</v>
+        <v>9.871127807878472E-4</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005623</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.0048930014439957726</v>
+        <v>0.0036371301256716963</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>2.6528852830483517E-6</v>
+        <v>6.966263730774302E-7</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.3502232293527805</v>
+        <v>0.32536657360670623</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>5.019310296228215E-6</v>
+        <v>3.1336807263271296E-6</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>5.546132441377542E-17</v>
+        <v>1.224743011888866E-17</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.32551973152148334</v>
+        <v>0.3057736153320551</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.005567259604258121</v>
+        <v>0.004851039108485332</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373907</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.033058159959707366</v>
+        <v>0.02389149738732892</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>8.12206134850539E-12</v>
+        <v>5.5478283494905065E-12</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.0780955560022469</v>
+        <v>0.07267500121698345</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>1.4003554047299976E-10</v>
+        <v>1.0025481083993827E-10</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>3.406639440255807E-27</v>
+        <v>2.326927863771028E-27</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226216</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9855414129565032</v>
+        <v>0.9762122087590169</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.002701276146982288</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.7675581264849829</v>
+        <v>0.7029408307119362</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.43395831037940297</v>
+        <v>0.17873338524075358</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9090340433225478</v>
+        <v>0.8838388540713158</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.8573112858327443</v>
+        <v>0.6697636490756533</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>7.571546172605764E-8</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.041527203186580604</v>
+        <v>0.03451500352113063</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>7.125078267267486E-9</v>
+        <v>3.6074878289141885E-9</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8066236525261709</v>
+        <v>0.7795843911395075</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>4.453154118101492E-6</v>
+        <v>2.2546748176351123E-6</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>5.580695159859871E-20</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.32551973152148334</v>
+        <v>0.3057736153320551</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>2.2388696354446328E-4</v>
+        <v>1.9494944341864645E-4</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005624</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>8.051571220602474E-4</v>
+        <v>6.11571810860305E-4</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>7.657348055267052E-15</v>
+        <v>5.548184256258989E-15</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.06919896782375959</v>
+        <v>0.06517872481015106</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>3.300581058293897E-12</v>
+        <v>2.5065310610175054E-12</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>3.2117245577598855E-30</v>
+        <v>2.3270771418764017E-30</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9096414357812637</v>
+        <v>0.8623614416256521</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.7157591787160731</v>
+        <v>0.6566324878698269</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>2.6819211674525886E-4</v>
+        <v>9.578003965402316E-5</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836923</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.004012861673675627</v>
+        <v>0.003050396907259881</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>8.79047681809357E-15</v>
+        <v>3.13882097578052E-15</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.48917660803943414</v>
+        <v>0.3956725529893163</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.5430785417631258</v>
+        <v>0.4507235369219872</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.0014552914790100246</v>
+        <v>4.0361362413704114E-4</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.3113544063124702</v>
+        <v>0.29350718543131615</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>7.606205039315211E-5</v>
+        <v>5.251415901174578E-5</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>9.551298159665213E-15</v>
+        <v>2.6461902855958097E-15</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.3255197315214833</v>
+        <v>0.305773615332055</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.00556725960425812</v>
+        <v>0.004851039108485332</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.2975335789130289</v>
+        <v>0.2815332801692346</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.0400526133883344</v>
+        <v>0.028372857026271535</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>5.451726481813828E-10</v>
+        <v>3.2086932728848036E-10</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.3804810408210707</v>
+        <v>0.3515343994821232</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>6.814657641586845E-8</v>
+        <v>4.010866431522479E-8</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>1.8235793066129738E-23</v>
+        <v>9.025950388967269E-24</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.008958546388159381</v>
+        <v>0.008849748844690251</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>1.2189148912541318E-4</v>
+        <v>1.1400795481334794E-4</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>1.8128151899190506E-6</v>
+        <v>1.2789421814157576E-6</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>1.141899549704145E-4</v>
+        <v>1.0753505515850276E-4</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>8.141580027205766E-9</v>
+        <v>6.336638174352034E-9</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.9966414287326108E-12</v>
+        <v>6.236067391479198E-13</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>9.604379702235604E-6</v>
+        <v>8.233202300095564E-6</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>4.820336476470379E-13</v>
+        <v>3.010173366670401E-13</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>2.4874662997990745E-23</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.008590843603613223</v>
+        <v>0.007099018832218605</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>1.4250156615761755E-9</v>
+        <v>7.214975678650728E-10</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>8.752220514774412E-8</v>
+        <v>6.265925285506118E-8</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>1.4942372244822042E-23</v>
+        <v>7.565450342675259E-24</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>8.934267482630297E-11</v>
+        <v>5.3789813994639106E-11</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>1.7504442255170734E-8</v>
+        <v>1.2531851199201369E-8</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>1.873651692140692E-25</v>
+        <v>1.128054160045522E-25</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9805201501449755</v>
+        <v>0.9690661341665177</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9972930521111427</v>
+        <v>0.9856149215229952</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8353523234118297</v>
+        <v>0.8082407789131292</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.7936375320913835</v>
+        <v>0.6405863492607861</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>1.3578548940713784E-4</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8066236525261707</v>
+        <v>0.7795843911395076</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9954220866802573</v>
+        <v>0.9909984348840045</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.22953353390110315</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.8740993718788991</v>
+        <v>0.8191317463472715</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.8477297213196384</v>
+        <v>0.7946575776865432</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.35250787970726655</v>
+        <v>0.1132479328445704</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.7543467134348185</v>
+        <v>0.7304952131265653</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.12440208417294793</v>
+        <v>0.07668428743485088</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>2.845410723919423E-10</v>
+        <v>5.6132300053068154E-11</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9684448693676464</v>
+        <v>0.9431465826824303</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005623</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.7663801087878683</v>
+        <v>0.707504122689592</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9397546791977193</v>
+        <v>0.7392398674025602</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.7293603700793652</v>
+        <v>0.7068679962739537</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.6766821737894807</v>
+        <v>0.5647990066828064</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>1.2771804502012142E-6</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.0017803555878907374</v>
+        <v>0.0017609856736062058</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.810488079834776E-6</v>
+        <v>4.5054953190154685E-6</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>7.153510138346188E-8</v>
+        <v>5.053721131444881E-8</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>2.4051977592167872E-5</v>
+        <v>2.2527070612632565E-5</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.5538926968047074E-9</v>
+        <v>1.88926536394074E-9</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>1.3778968478339016E-12</v>
+        <v>3.60538687934184E-13</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.9242041180404436E-7</v>
+        <v>1.802205922643327E-7</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>6.537965320517259E-15</v>
+        <v>4.8365193408257505E-15</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>7.224147825581321E-26</v>
+        <v>1.890261076197044E-26</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.581336732694483</v>
+        <v>0.4752797052248572</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.15431429051107587</v>
+        <v>0.11484743841421187</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.017531055334745457</v>
+        <v>0.0042635788658397485</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.47104657771641695</v>
+        <v>0.42855869886793296</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.014637421285832453</v>
+        <v>0.007414650420249091</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>1.4875122084155172E-10</v>
+        <v>2.5243496052850227E-11</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9428922369481839</v>
+        <v>0.9220677822498873</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.979270793863514</v>
+        <v>0.9687082729295304</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.499685421506016</v>
+        <v>0.21585571641560938</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8353523234118297</v>
+        <v>0.8082407789131292</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.13332397647733035</v>
+        <v>0.06654801227469742</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>5.323055698708232E-10</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.008590843603613226</v>
+        <v>0.007099018832218605</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.027250485414858906</v>
+        <v>0.020103302647545646</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>2.1230090457662823E-11</v>
+        <v>1.2474687738125512E-11</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.28407317540294824</v>
+        <v>0.2698612729194928</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>2.8686210135677877E-9</v>
+        <v>2.100811434864501E-9</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>2.226136333220672E-25</v>
+        <v>1.308065816985575E-25</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.32551973152148334</v>
+        <v>0.3057736153320551</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.7986178676778064</v>
+        <v>0.6934466121037521</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.8001397834880025</v>
+        <v>0.7426532433166899</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9292230722007598</v>
+        <v>0.7097079567736126</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.36521907967749695</v>
+        <v>0.33832686493513375</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.0926983262994056</v>
+        <v>0.05832101494722012</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>4.4056819706437694E-8</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.6109831949231553</v>
+        <v>0.5528534863190492</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.8856078007150349</v>
+        <v>0.8384391169563278</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>1.1697398040628832E-5</v>
+        <v>5.290788788437443E-6</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.3255197315214833</v>
+        <v>0.3057736153320559</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>3.9638139618213875E-6</v>
+        <v>2.6570768812487742E-6</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>6.132877162630491E-19</v>
+        <v>2.773911748493448E-19</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9552927319310507</v>
+        <v>0.9386415362999414</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9998766041355407</v>
+        <v>0.9991690519224404</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226216</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9855414129565032</v>
+        <v>0.9762122087590169</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.002701276146982288</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.5199602253827164</v>
+        <v>0.47193935994334957</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.5430785417631256</v>
+        <v>0.45072353692198713</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>5.629625257307632E-7</v>
+        <v>3.118470904496944E-7</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.487335755591941</v>
+        <v>0.4429307201765207</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>3.096199767119384E-5</v>
+        <v>1.511758077197665E-5</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>1.5017616823207762E-18</v>
+        <v>5.883170076907391E-19</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9864839096622708</v>
+        <v>0.9774463971344513</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.1376358503640297</v>
+        <v>0.10338102956350825</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.006734247220302528</v>
+        <v>0.0019329513869598657</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.052253505162734075</v>
+        <v>0.04214482329741925</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.0016551733155668266</v>
+        <v>7.118166373102198E-4</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>5.148886561902006E-8</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6351884126785015</v>
+        <v>0.6218000990836918</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9264203676371447</v>
+        <v>0.9053178888016327</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9752839810268731</v>
+        <v>0.8888272266965266</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.7162842447745832</v>
+        <v>0.6946104684136775</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.97570715791993</v>
+        <v>0.9624774313358464</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>1.8009005159745976E-5</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9428922369481839</v>
+        <v>0.9220677822498873</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.17213012576923878</v>
+        <v>0.12727840220757833</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>3.302544714906033E-6</v>
+        <v>1.4228246820742947E-6</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.02722991401988921</v>
+        <v>0.023793502694040194</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.6979492986247312E-6</v>
+        <v>1.0015747011476977E-6</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>6.904317498728249E-17</v>
+        <v>2.5014784385586905E-17</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9906392935122342</v>
+        <v>0.9835948047827753</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.6501767520752718</v>
+        <v>0.6354462656005624</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.7288503429013341</v>
+        <v>0.6696894787779106</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.032052493698432986</v>
+        <v>0.009334566649079504</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.4386864925233019</v>
+        <v>0.40019572067883297</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.17953893083993966</v>
+        <v>0.10452586099181446</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>9.338011782030536E-8</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.08292650825997441</v>
+        <v>0.0767144250748156</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>3.0409770182193154E-4</v>
+        <v>2.5437011467083784E-4</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.07352347200872404</v>
+        <v>0.06883241766278206</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>3.9334937731830506E-5</v>
+        <v>2.9202404246045075E-5</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>1.4905418670598429E-13</v>
+        <v>8.878587149364864E-14</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.004581684790277796</v>
+        <v>0.0040738973750251055</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>1.284949885380099E-11</v>
+        <v>8.022247798496378E-12</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.9857991078540325E-27</v>
+        <v>2.4975178458405443E-27</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.8272322925249705</v>
+        <v>0.7660085424830336</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.8788266730071969</v>
+        <v>0.8303630011791069</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9244035621110978</v>
+        <v>0.7448426010051957</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.8732863457692331</v>
+        <v>0.8461513612799003</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9040062025487521</v>
+        <v>0.7907988172454545</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>3.25178729513383E-7</v>
+        <v>4.616796583125615E-8</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.008590843603613223</v>
+        <v>0.007099018832218605</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>7.125078267267486E-9</v>
+        <v>3.6074878289141893E-9</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226216</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>1.3959773455302358E-6</v>
+        <v>8.404651373292076E-7</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>1.1916541865245584E-21</v>
+        <v>5.073873304556175E-22</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.02901336758025176</v>
+        <v>0.025189796381916645</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.5268408867419911</v>
+        <v>0.43629669603873567</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>2.909731316619434E-9</v>
+        <v>1.7009287101064293E-9</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373914</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>1.1401767215224075E-7</v>
+        <v>7.925583870010611E-8</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>6.102148867866655E-24</v>
+        <v>3.567106052324477E-24</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.008590843603613223</v>
+        <v>0.007099018832218605</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>1.4250156615761755E-9</v>
+        <v>7.214975678650728E-10</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>8.752220514774412E-8</v>
+        <v>6.265925285506118E-8</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>1.4942372244822042E-23</v>
+        <v>7.565450342675259E-24</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.7675581264849828</v>
+        <v>0.7029408307119361</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7070125351326294</v>
+        <v>0.6877206988977116</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.1721301257692388</v>
+        <v>0.12727840220757836</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>6.605106880740713E-7</v>
+        <v>2.845652603240398E-7</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.0880277661461651</v>
+        <v>0.0809587669591512</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>1.0645467090322918E-7</v>
+        <v>7.467047593310929E-8</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.731490281812725E-19</v>
+        <v>7.459709683012679E-20</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>4.467133739718727E-10</v>
+        <v>2.6894906991532874E-10</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7420508639559503</v>
+        <v>0.7188326870226216</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>2.791957809068353E-7</v>
+        <v>1.680931404869809E-7</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>1.4942372244822036E-23</v>
+        <v>7.565450342675248E-24</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.3113544063124701</v>
+        <v>0.2935071854313154</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.11591774283071489</v>
+        <v>0.10309662423402684</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.3113544063124701</v>
+        <v>0.2935071854313154</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.20293325680593916</v>
+        <v>0.1483515105853656</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>4.1583304620296023E-7</v>
+        <v>2.3925789330683426E-7</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.5795425357971471</v>
+        <v>0.5238047625724156</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>9.617090285886326E-6</v>
+        <v>4.439735337331274E-6</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>3.216906707574949E-19</v>
+        <v>1.2488887340597678E-19</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9955258594919167</v>
+        <v>0.9913606464504932</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.6933106848616216</v>
+        <v>0.6750306005577336</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9731638767291888</v>
+        <v>0.9607453701589763</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.999999399019049</v>
+        <v>0.9999944704939753</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8261767991990003</v>
+        <v>0.7990169638886957</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9972974288795633</v>
+        <v>0.9943546064030225</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9781689170529886</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.3255197315214833</v>
+        <v>0.305773615332055</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>4.4785414205210636E-5</v>
+        <v>3.899597047792147E-5</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.25828580079540175</v>
+        <v>0.2474531188944468</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>1.509544988883903E-4</v>
+        <v>1.1542638712479589E-4</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>3.1563288005210907E-15</v>
+        <v>2.0295510970155453E-15</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.06511094653140972</v>
+        <v>0.061706121568492076</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>3.092014890783057E-12</v>
+        <v>2.364205299986433E-12</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>1.3238602513340761E-30</v>
+        <v>8.512554284416626E-31</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.08348852753576995</v>
+        <v>0.06403778665388725</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373906</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.5268408867419911</v>
+        <v>0.43629669603873567</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>1.1806735228068836E-5</v>
+        <v>4.104769904495233E-6</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.6792587486225425</v>
+        <v>0.6620782053373914</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>1.4252007521420683E-5</v>
+        <v>9.906882475406614E-6</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>3.0951013426689176E-18</v>
+        <v>1.0760452187620185E-18</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5406319863435244</v>
+        <v>0.5365469300632358</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.7203491479991139</v>
+        <v>0.7001353822947581</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.0059405579901299025</v>
+        <v>0.005141571385408551</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245128</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.1459866055637344</v>
+        <v>0.10903723561716817</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>8.934267482630297E-11</v>
+        <v>5.3789813994639106E-11</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.6648741887958995</v>
+        <v>0.6488780925245135</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>1.7504442255170734E-8</v>
+        <v>1.2531851199201369E-8</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>1.873651692140692E-25</v>
+        <v>1.128054160045522E-25</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/old_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
@@ -648,9 +648,7 @@
       <c r="M3" t="n" s="25">
         <v>1.904355282708928E-8</v>
       </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +681,7 @@
       <c r="M4" t="n" s="25">
         <v>0.22953353390110315</v>
       </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -718,9 +714,7 @@
       <c r="M5" t="n" s="25">
         <v>0.9997971268258575</v>
       </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -753,9 +747,7 @@
       <c r="M6" t="n" s="25">
         <v>0.9999981551406696</v>
       </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -788,9 +780,7 @@
       <c r="M7" t="n" s="25">
         <v>0.8569758867585606</v>
       </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -823,9 +813,7 @@
       <c r="M8" t="n" s="25">
         <v>2.4625459551125996E-5</v>
       </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -858,9 +846,7 @@
       <c r="M9" t="n" s="25">
         <v>0.9999999832268215</v>
       </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,9 +879,7 @@
       <c r="M10" t="n" s="25">
         <v>0.9703855787241963</v>
       </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -928,9 +912,7 @@
       <c r="M11" t="n" s="25">
         <v>0.016074409048944797</v>
       </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -963,9 +945,7 @@
       <c r="M12" t="n" s="25">
         <v>0.9999999832268215</v>
       </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>1.1289631691662465E-9</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>1.6043452336788696E-17</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1068,9 +1044,7 @@
       <c r="M15" t="n" s="25">
         <v>1.4725602100664222E-8</v>
       </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.006523700401828805</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1138,9 +1110,7 @@
       <c r="M17" t="n" s="25">
         <v>0.9975176876196338</v>
       </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1173,9 +1143,7 @@
       <c r="M18" t="n" s="25">
         <v>0.9999999986322955</v>
       </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1208,9 +1176,7 @@
       <c r="M19" t="n" s="25">
         <v>0.9999981551406696</v>
       </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1243,9 +1209,7 @@
       <c r="M20" t="n" s="25">
         <v>0.9997971268258575</v>
       </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1278,9 +1242,7 @@
       <c r="M21" t="n" s="25">
         <v>0.9999999999875652</v>
       </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1313,9 +1275,7 @@
       <c r="M22" t="n" s="25">
         <v>0.9999981551406696</v>
       </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1348,9 +1308,7 @@
       <c r="M23" t="n" s="25">
         <v>0.9999998495677661</v>
       </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1383,9 +1341,7 @@
       <c r="M24" t="n" s="25">
         <v>0.9999981551406696</v>
       </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1418,9 +1374,7 @@
       <c r="M25" t="n" s="25">
         <v>0.9865739818062277</v>
       </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>2.510140132929093E-16</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>5.073547824072443E-19</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1523,9 +1473,7 @@
       <c r="M28" t="n" s="25">
         <v>0.32821912620192994</v>
       </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,9 +1506,7 @@
       <c r="M29" t="n" s="25">
         <v>1.8009005159745982E-5</v>
       </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>2.6167392945328723E-25</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1628,9 +1572,7 @@
       <c r="M31" t="n" s="25">
         <v>0.9999999832268215</v>
       </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>7.565935684791365E-27</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>4.7290360439044114E-33</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>7.565450342675251E-24</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>7.616283734803011E-40</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>1.128054160045522E-25</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>7.565450342675251E-24</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>3.2459738954655006E-13</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>7.565450342675248E-24</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>2.3924821988713674E-25</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1978,9 +1902,7 @@
       <c r="M41" t="n" s="25">
         <v>0.9930309539077866</v>
       </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>6.516816467471964E-32</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>1.9507327116763538E-23</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>5.073873304556175E-22</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>2.392328725141013E-22</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>9.002452716029441E-48</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>1.7319235910050765E-30</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>1.2293557635132213E-32</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>1.1281265274748636E-28</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>3.831933809843514E-35</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,9 +2232,7 @@
       <c r="M51" t="n" s="25">
         <v>3.7284917590249705E-42</v>
       </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>1.1280541600455212E-25</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>8.279335497399831E-9</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2433,9 +2331,7 @@
       <c r="M54" t="n" s="25">
         <v>2.6327220256474357E-4</v>
       </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>2.2820304002878167E-15</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,9 +2397,7 @@
       <c r="M56" t="n" s="25">
         <v>0.9999981551406696</v>
       </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>2.2820304002878148E-15</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2573,9 +2463,7 @@
       <c r="M58" t="n" s="25">
         <v>2.4625459551125996E-5</v>
       </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>2.3810120722854856E-11</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2643,9 +2529,7 @@
       <c r="M60" t="n" s="25">
         <v>0.28945520303631755</v>
       </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>4.616796583125615E-8</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2713,9 +2595,7 @@
       <c r="M62" t="n" s="25">
         <v>1.3504384962958626E-6</v>
       </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2748,9 +2628,7 @@
       <c r="M63" t="n" s="25">
         <v>5.077936155636307E-6</v>
       </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2783,9 +2661,7 @@
       <c r="M64" t="n" s="25">
         <v>0.22953353390110307</v>
       </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2818,9 +2694,7 @@
       <c r="M65" t="n" s="25">
         <v>2.3485391947381234E-5</v>
       </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>2.854530793338976E-28</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>2.2820304002878163E-15</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>1.95242989893939E-10</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2958,9 +2826,7 @@
       <c r="M69" t="n" s="25">
         <v>5.007293601021781E-29</v>
       </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>2.2821767981112606E-18</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>6.537472113288952E-28</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>1.224743011888866E-17</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>2.326927863771028E-27</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3133,9 +2991,7 @@
       <c r="M74" t="n" s="25">
         <v>0.002701276146982288</v>
       </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>7.571546172605764E-8</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>5.580695159859871E-20</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>2.3270771418764017E-30</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3273,9 +3123,7 @@
       <c r="M78" t="n" s="25">
         <v>3.13882097578052E-15</v>
       </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3308,9 +3156,7 @@
       <c r="M79" t="n" s="25">
         <v>2.6461902855958097E-15</v>
       </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>9.025950388967269E-24</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3378,9 +3222,7 @@
       <c r="M81" t="n" s="25">
         <v>2.4874662997990745E-23</v>
       </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>7.565450342675259E-24</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>1.128054160045522E-25</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3483,9 +3321,7 @@
       <c r="M84" t="n" s="25">
         <v>1.3578548940713784E-4</v>
       </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3518,9 +3354,7 @@
       <c r="M85" t="n" s="25">
         <v>0.22953353390110315</v>
       </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3553,9 +3387,7 @@
       <c r="M86" t="n" s="25">
         <v>5.6132300053068154E-11</v>
       </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,9 +3420,7 @@
       <c r="M87" t="n" s="25">
         <v>1.2771804502012142E-6</v>
       </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>1.890261076197044E-26</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>2.5243496052850227E-11</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>5.323055698708232E-10</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>1.308065816985575E-25</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3763,9 +3585,7 @@
       <c r="M92" t="n" s="25">
         <v>4.4056819706437694E-8</v>
       </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3798,9 +3618,7 @@
       <c r="M93" t="n" s="25">
         <v>2.773911748493448E-19</v>
       </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3833,9 +3651,7 @@
       <c r="M94" t="n" s="25">
         <v>0.002701276146982288</v>
       </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>5.883170076907391E-19</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3903,9 +3717,7 @@
       <c r="M96" t="n" s="25">
         <v>5.148886561902006E-8</v>
       </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3938,9 +3750,7 @@
       <c r="M97" t="n" s="25">
         <v>1.8009005159745976E-5</v>
       </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3973,9 +3783,7 @@
       <c r="M98" t="n" s="25">
         <v>2.5014784385586905E-17</v>
       </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4008,9 +3816,7 @@
       <c r="M99" t="n" s="25">
         <v>9.338011782030536E-8</v>
       </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4043,9 +3849,7 @@
       <c r="M100" t="n" s="25">
         <v>2.4975178458405443E-27</v>
       </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>4.616796583125615E-8</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>5.073873304556175E-22</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>3.567106052324477E-24</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>7.565450342675259E-24</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4218,9 +4014,7 @@
       <c r="M105" t="n" s="25">
         <v>7.459709683012679E-20</v>
       </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>7.565450342675248E-24</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>1.2488887340597678E-19</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4323,9 +4113,7 @@
       <c r="M108" t="n" s="25">
         <v>0.9781689170529886</v>
       </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>8.512554284416626E-31</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>1.0760452187620185E-18</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>1.128054160045522E-25</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
